--- a/rates/public/Noviembre 2024.xlsx
+++ b/rates/public/Noviembre 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBC3BBD-49E8-4653-8C46-2D578DEA1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB740C-CF17-4DD5-A739-803CFF916A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
   <dimension ref="A1:P590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N547" sqref="N547"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B590" sqref="B2:B590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
